--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H2">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I2">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J2">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N2">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O2">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P2">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q2">
-        <v>3420.821397173921</v>
+        <v>9153.41994885185</v>
       </c>
       <c r="R2">
-        <v>30787.39257456529</v>
+        <v>82380.77953966665</v>
       </c>
       <c r="S2">
-        <v>0.1720649773400685</v>
+        <v>0.2781299590994537</v>
       </c>
       <c r="T2">
-        <v>0.1720649773400684</v>
+        <v>0.2781299590994536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H3">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I3">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J3">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q3">
-        <v>438.3467235320554</v>
+        <v>562.4343375804501</v>
       </c>
       <c r="R3">
-        <v>3945.120511788499</v>
+        <v>5061.90903822405</v>
       </c>
       <c r="S3">
-        <v>0.02204854048034992</v>
+        <v>0.01708976974524156</v>
       </c>
       <c r="T3">
-        <v>0.02204854048034991</v>
+        <v>0.01708976974524156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H4">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I4">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J4">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N4">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q4">
-        <v>1252.732779628527</v>
+        <v>1676.19983421015</v>
       </c>
       <c r="R4">
-        <v>11274.59501665675</v>
+        <v>15085.79850789135</v>
       </c>
       <c r="S4">
-        <v>0.06301160227716632</v>
+        <v>0.05093193516045963</v>
       </c>
       <c r="T4">
-        <v>0.0630116022771663</v>
+        <v>0.05093193516045962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H5">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I5">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J5">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N5">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q5">
-        <v>4.173023769313555</v>
+        <v>12.161089867</v>
       </c>
       <c r="R5">
-        <v>37.55721392382199</v>
+        <v>109.449808803</v>
       </c>
       <c r="S5">
-        <v>0.0002099002423510618</v>
+        <v>0.0003695190919037595</v>
       </c>
       <c r="T5">
-        <v>0.0002099002423510618</v>
+        <v>0.0003695190919037593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N6">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O6">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P6">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q6">
-        <v>3124.130303812558</v>
+        <v>6515.20469141974</v>
       </c>
       <c r="R6">
-        <v>28117.17273431303</v>
+        <v>58636.84222277766</v>
       </c>
       <c r="S6">
-        <v>0.1571416182022901</v>
+        <v>0.197966839113116</v>
       </c>
       <c r="T6">
-        <v>0.1571416182022901</v>
+        <v>0.197966839113116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q7">
         <v>400.3284952832673</v>
@@ -883,10 +883,10 @@
         <v>3602.956457549405</v>
       </c>
       <c r="S7">
-        <v>0.02013624959385652</v>
+        <v>0.01216412539156441</v>
       </c>
       <c r="T7">
-        <v>0.02013624959385652</v>
+        <v>0.0121641253915644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>19.126085</v>
       </c>
       <c r="I8">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J8">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N8">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q8">
-        <v>1144.082074162097</v>
+        <v>1193.082485522015</v>
       </c>
       <c r="R8">
-        <v>10296.73866745887</v>
+        <v>10737.74236969814</v>
       </c>
       <c r="S8">
-        <v>0.05754654608057316</v>
+        <v>0.03625224066575636</v>
       </c>
       <c r="T8">
-        <v>0.05754654608057315</v>
+        <v>0.03625224066575636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>19.126085</v>
       </c>
       <c r="I9">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J9">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N9">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q9">
-        <v>3.811093448787778</v>
+        <v>8.65599854447778</v>
       </c>
       <c r="R9">
-        <v>34.29984103909</v>
+        <v>77.90398690030001</v>
       </c>
       <c r="S9">
-        <v>0.0001916953946933034</v>
+        <v>0.0002630156307252698</v>
       </c>
       <c r="T9">
-        <v>0.0001916953946933033</v>
+        <v>0.0002630156307252697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H10">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N10">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O10">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P10">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q10">
-        <v>3821.28408630936</v>
+        <v>7669.903941763545</v>
       </c>
       <c r="R10">
-        <v>34391.55677678424</v>
+        <v>69029.13547587191</v>
       </c>
       <c r="S10">
-        <v>0.1922079767929361</v>
+        <v>0.2330527913653752</v>
       </c>
       <c r="T10">
-        <v>0.1922079767929361</v>
+        <v>0.2330527913653751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H11">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I11">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J11">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q11">
-        <v>489.6623250493921</v>
+        <v>471.2792996384441</v>
       </c>
       <c r="R11">
-        <v>4406.960925444529</v>
+        <v>4241.513696745997</v>
       </c>
       <c r="S11">
-        <v>0.02462968015036222</v>
+        <v>0.01431999111428304</v>
       </c>
       <c r="T11">
-        <v>0.02462968015036221</v>
+        <v>0.01431999111428304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H12">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I12">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J12">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N12">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q12">
-        <v>1399.385492369568</v>
+        <v>1404.534238288111</v>
       </c>
       <c r="R12">
-        <v>12594.46943132611</v>
+        <v>12640.808144593</v>
       </c>
       <c r="S12">
-        <v>0.07038813345634258</v>
+        <v>0.04267727826667173</v>
       </c>
       <c r="T12">
-        <v>0.07038813345634257</v>
+        <v>0.04267727826667173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H13">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I13">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J13">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N13">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q13">
-        <v>4.661543959776</v>
+        <v>10.19011381846889</v>
       </c>
       <c r="R13">
-        <v>41.953895637984</v>
+        <v>91.71102436622</v>
       </c>
       <c r="S13">
-        <v>0.0002344724739126188</v>
+        <v>0.0003096302753928637</v>
       </c>
       <c r="T13">
-        <v>0.0002344724739126188</v>
+        <v>0.0003096302753928635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H14">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I14">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J14">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N14">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O14">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P14">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q14">
-        <v>2927.024464088005</v>
+        <v>3076.65292878185</v>
       </c>
       <c r="R14">
-        <v>26343.22017679205</v>
+        <v>27689.87635903665</v>
       </c>
       <c r="S14">
-        <v>0.1472273292324483</v>
+        <v>0.09348520640666612</v>
       </c>
       <c r="T14">
-        <v>0.1472273292324483</v>
+        <v>0.0934852064066661</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H15">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I15">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J15">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q15">
-        <v>375.0711991544277</v>
+        <v>189.0457623089198</v>
       </c>
       <c r="R15">
-        <v>3375.640792389849</v>
+        <v>1701.411860780278</v>
       </c>
       <c r="S15">
-        <v>0.01886582486789144</v>
+        <v>0.00574422351784484</v>
       </c>
       <c r="T15">
-        <v>0.01886582486789144</v>
+        <v>0.005744223517844838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H16">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I16">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J16">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N16">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q16">
-        <v>1071.900303233294</v>
+        <v>563.405279989714</v>
       </c>
       <c r="R16">
-        <v>9647.102729099646</v>
+        <v>5070.647519907426</v>
       </c>
       <c r="S16">
-        <v>0.05391585235610947</v>
+        <v>0.0171192721797508</v>
       </c>
       <c r="T16">
-        <v>0.05391585235610946</v>
+        <v>0.01711927217975079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H17">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I17">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J17">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N17">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q17">
-        <v>3.570646123791333</v>
+        <v>4.087592721142223</v>
       </c>
       <c r="R17">
-        <v>32.135815114122</v>
+        <v>36.78833449028001</v>
       </c>
       <c r="S17">
-        <v>0.000179601058648407</v>
+        <v>0.0001242029757947591</v>
       </c>
       <c r="T17">
-        <v>0.000179601058648407</v>
+        <v>0.000124202975794759</v>
       </c>
     </row>
   </sheetData>
